--- a/All Practice More.xlsx
+++ b/All Practice More.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Data_Analyst_Practice_Files\Neeraj Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FC35F-7AA1-4C4C-B812-12C8BDA38121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14628B86-98A0-452B-BE74-311C91EFC965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice Date Formule" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,33 @@
     <sheet name="Scenario Summary" sheetId="12" r:id="rId6"/>
     <sheet name="Scenario Summary 2" sheetId="13" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId11"/>
+    <sheet name="Sheet7" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId13"/>
   </sheets>
   <definedNames>
+    <definedName name="NativeTimeline_OrderDate">#N/A</definedName>
     <definedName name="Total_Profit">Sheet2!$F$14</definedName>
     <definedName name="Unit_Sales">Sheet2!$F$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="10" r:id="rId15"/>
+    <pivotCache cacheId="5" r:id="rId16"/>
+    <pivotCache cacheId="16" r:id="rId17"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
+      <x15:timelineCacheRefs>
+        <x15:timelineCacheRef r:id="rId18"/>
+      </x15:timelineCacheRefs>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -41,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="78">
   <si>
     <t>Today</t>
   </si>
@@ -269,6 +284,12 @@
   </si>
   <si>
     <t>West Total</t>
+  </si>
+  <si>
+    <t>Sum of Unit_price</t>
+  </si>
+  <si>
+    <t>Sum of Units</t>
   </si>
 </sst>
 </file>
@@ -567,7 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -581,7 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -653,6 +673,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{8E94604C-1601-4341-B1AB-C1477B696093}"/>
@@ -1075,6 +1099,88 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52753</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>442546</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158262</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="OrderDate">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1CDC81-8228-4E78-878A-EDFEB1D88ADA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="OrderDate"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2573215" y="601980"/>
+              <a:ext cx="3437793" cy="1736774"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>Timeline: Works in Excel 2013 or higher. Do not move or resize.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="46044.426864004628" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{DB653F5C-2A71-4A95-9329-485E4E9921FE}">
   <cacheSource type="worksheet">
@@ -1123,6 +1229,207 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="46049.479315509256" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11" xr:uid="{F7E7FFFA-A372-472F-A90F-749A9634A4C3}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I12" sheet="Sheet6"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="OrderDate" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-06T00:00:00" maxDate="2019-08-25T00:00:00"/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SalesMan" numFmtId="0">
+      <sharedItems count="8">
+        <s v="Alexander"/>
+        <s v="Luis"/>
+        <s v="David"/>
+        <s v="Stephen"/>
+        <s v="Steven"/>
+        <s v="John"/>
+        <s v="Shelli"/>
+        <s v="Sigal"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="95"/>
+    </cacheField>
+    <cacheField name="Unit_price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="125" maxValue="1198"/>
+    </cacheField>
+    <cacheField name="Sale_amt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="113810"/>
+    </cacheField>
+    <cacheField name="Payment Type" numFmtId="0">
+      <sharedItems count="4">
+        <s v="UPI"/>
+        <s v="DEBIT CARD"/>
+        <s v="NET BANKING"/>
+        <s v="CASH"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="46049.497821527781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23" xr:uid="{3CE9168D-CD7B-43EA-A1CD-6F7E934C206A}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="OrderDate" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-06T00:00:00" maxDate="2019-12-05T00:00:00" count="23">
+        <d v="2018-01-06T00:00:00"/>
+        <d v="2018-01-23T00:00:00"/>
+        <d v="2018-02-09T00:00:00"/>
+        <d v="2018-02-26T00:00:00"/>
+        <d v="2018-03-15T00:00:00"/>
+        <d v="2018-04-01T00:00:00"/>
+        <d v="2018-04-18T00:00:00"/>
+        <d v="2018-05-05T00:00:00"/>
+        <d v="2018-05-22T00:00:00"/>
+        <d v="2018-06-08T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-07-12T00:00:00"/>
+        <d v="2018-07-29T00:00:00"/>
+        <d v="2018-08-15T00:00:00"/>
+        <d v="2018-09-01T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-22T00:00:00"/>
+        <d v="2018-11-08T00:00:00"/>
+        <d v="2018-11-25T00:00:00"/>
+        <d v="2019-02-18T00:00:00"/>
+        <d v="2019-05-31T00:00:00"/>
+        <d v="2019-08-24T00:00:00"/>
+        <d v="2019-12-04T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="3">
+        <s v="East"/>
+        <s v="Central"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="SalesMan" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Unit_price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="58.5" maxValue="1198"/>
+    </cacheField>
+    <cacheField name="Sale_amt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="113810"/>
+    </cacheField>
+    <cacheField name="Payment Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="512600103"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pc" refreshedDate="46049.500301736109" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23" xr:uid="{87BF1CDE-BF3B-4A5F-8DB4-57765477CF48}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="OrderDate" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-06T00:00:00" maxDate="2019-12-05T00:00:00" count="23">
+        <d v="2018-01-06T00:00:00"/>
+        <d v="2018-01-23T00:00:00"/>
+        <d v="2018-02-09T00:00:00"/>
+        <d v="2018-02-26T00:00:00"/>
+        <d v="2018-03-15T00:00:00"/>
+        <d v="2018-04-01T00:00:00"/>
+        <d v="2018-04-18T00:00:00"/>
+        <d v="2018-05-05T00:00:00"/>
+        <d v="2018-05-22T00:00:00"/>
+        <d v="2018-06-08T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-07-12T00:00:00"/>
+        <d v="2018-07-29T00:00:00"/>
+        <d v="2018-08-15T00:00:00"/>
+        <d v="2018-09-01T00:00:00"/>
+        <d v="2018-10-05T00:00:00"/>
+        <d v="2018-10-22T00:00:00"/>
+        <d v="2018-11-08T00:00:00"/>
+        <d v="2018-11-25T00:00:00"/>
+        <d v="2019-02-18T00:00:00"/>
+        <d v="2019-05-31T00:00:00"/>
+        <d v="2019-08-24T00:00:00"/>
+        <d v="2019-12-04T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Manager" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Martha"/>
+        <s v="Hermann"/>
+        <s v="Timothy"/>
+        <s v="Douglas"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SalesMan" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="96"/>
+    </cacheField>
+    <cacheField name="Unit_price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="58.5" maxValue="1198"/>
+    </cacheField>
+    <cacheField name="Sale_amt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="113810"/>
+    </cacheField>
+    <cacheField name="Payment Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="43">
   <r>
@@ -1601,7 +1908,859 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <d v="2018-01-06T00:00:00"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <x v="0"/>
+    <s v="Television"/>
+    <n v="95"/>
+    <n v="1198"/>
+    <n v="113810"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-02-09T00:00:00"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <x v="1"/>
+    <s v="Television"/>
+    <n v="36"/>
+    <n v="1198"/>
+    <n v="43128"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-26T00:00:00"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <x v="2"/>
+    <s v="Cell Phone"/>
+    <n v="27"/>
+    <n v="225"/>
+    <n v="6075"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-15T00:00:00"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <x v="3"/>
+    <s v="Television"/>
+    <n v="56"/>
+    <n v="1198"/>
+    <n v="67088"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-04-18T00:00:00"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <x v="4"/>
+    <s v="Television"/>
+    <n v="75"/>
+    <n v="1198"/>
+    <n v="89850"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <x v="1"/>
+    <s v="Television"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-09-01T00:00:00"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <x v="5"/>
+    <s v="Desk"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2019-08-24T00:00:00"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <x v="3"/>
+    <s v="Desk"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="375"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-01-23T00:00:00"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <x v="6"/>
+    <s v="Home Theater"/>
+    <n v="50"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-10-05T00:00:00"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <x v="7"/>
+    <s v="Home Theater"/>
+    <n v="28"/>
+    <n v="500"/>
+    <n v="14000"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2019-05-31T00:00:00"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <x v="2"/>
+    <s v="Home Theater"/>
+    <n v="80"/>
+    <n v="500"/>
+    <n v="40000"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Television"/>
+    <n v="95"/>
+    <n v="1198"/>
+    <n v="113810"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <s v="Home Theater"/>
+    <n v="50"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <s v="Television"/>
+    <n v="36"/>
+    <n v="1198"/>
+    <n v="43128"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <s v="Cell Phone"/>
+    <n v="27"/>
+    <n v="225"/>
+    <n v="6075"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <s v="Television"/>
+    <n v="56"/>
+    <n v="1198"/>
+    <n v="67088"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="Martha"/>
+    <s v="Steven"/>
+    <s v="Television"/>
+    <n v="75"/>
+    <n v="1198"/>
+    <n v="89850"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <s v="Television"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="Douglas"/>
+    <s v="Michael"/>
+    <s v="Television"/>
+    <n v="32"/>
+    <n v="1198"/>
+    <n v="38336"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <s v="Television"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Diana"/>
+    <s v="Home Theater"/>
+    <n v="29"/>
+    <n v="500"/>
+    <n v="14500"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <s v="Home Theater"/>
+    <n v="81"/>
+    <n v="500"/>
+    <n v="40500"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Television"/>
+    <n v="35"/>
+    <n v="1198"/>
+    <n v="41930"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+    <s v="Douglas"/>
+    <s v="John"/>
+    <s v="Desk"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Sigal"/>
+    <s v="Home Theater"/>
+    <n v="28"/>
+    <n v="500"/>
+    <n v="14000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Cell Phone"/>
+    <n v="64"/>
+    <n v="225"/>
+    <n v="14400"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <s v="Douglas"/>
+    <s v="Karen"/>
+    <s v="Cell Phone"/>
+    <n v="15"/>
+    <n v="225"/>
+    <n v="3375"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Shelli"/>
+    <s v="Video Games"/>
+    <n v="96"/>
+    <n v="58.5"/>
+    <n v="5616"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <s v="Martha"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="4"/>
+    <n v="500"/>
+    <n v="2000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+    <s v="Timothy"/>
+    <s v="David"/>
+    <s v="Home Theater"/>
+    <n v="80"/>
+    <n v="500"/>
+    <n v="40000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <s v="Timothy"/>
+    <s v="Stephen"/>
+    <s v="Desk"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="375"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+    <s v="Hermann"/>
+    <s v="Luis"/>
+    <s v="Home Theater"/>
+    <n v="94"/>
+    <n v="500"/>
+    <n v="47000"/>
+    <s v="CASH"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
+  <r>
+    <x v="0"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Television"/>
+    <n v="95"/>
+    <n v="1198"/>
+    <n v="113810"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Shelli"/>
+    <s v="Home Theater"/>
+    <n v="50"/>
+    <n v="500"/>
+    <n v="25000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Luis"/>
+    <s v="Television"/>
+    <n v="36"/>
+    <n v="1198"/>
+    <n v="43128"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Central"/>
+    <x v="2"/>
+    <s v="David"/>
+    <s v="Cell Phone"/>
+    <n v="27"/>
+    <n v="225"/>
+    <n v="6075"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="West"/>
+    <x v="2"/>
+    <s v="Stephen"/>
+    <s v="Television"/>
+    <n v="56"/>
+    <n v="1198"/>
+    <n v="67088"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Central"/>
+    <x v="0"/>
+    <s v="Steven"/>
+    <s v="Television"/>
+    <n v="75"/>
+    <n v="1198"/>
+    <n v="89850"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Luis"/>
+    <s v="Television"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="West"/>
+    <x v="3"/>
+    <s v="Michael"/>
+    <s v="Television"/>
+    <n v="32"/>
+    <n v="1198"/>
+    <n v="38336"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="60"/>
+    <n v="500"/>
+    <n v="30000"/>
+    <s v="UPI"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Sigal"/>
+    <s v="Television"/>
+    <n v="90"/>
+    <n v="1198"/>
+    <n v="107820"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Diana"/>
+    <s v="Home Theater"/>
+    <n v="29"/>
+    <n v="500"/>
+    <n v="14500"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="East"/>
+    <x v="3"/>
+    <s v="Karen"/>
+    <s v="Home Theater"/>
+    <n v="81"/>
+    <n v="500"/>
+    <n v="40500"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Television"/>
+    <n v="35"/>
+    <n v="1198"/>
+    <n v="41930"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Central"/>
+    <x v="3"/>
+    <s v="John"/>
+    <s v="Desk"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="250"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Sigal"/>
+    <s v="Home Theater"/>
+    <n v="28"/>
+    <n v="500"/>
+    <n v="14000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Cell Phone"/>
+    <n v="64"/>
+    <n v="225"/>
+    <n v="14400"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="East"/>
+    <x v="3"/>
+    <s v="Karen"/>
+    <s v="Cell Phone"/>
+    <n v="15"/>
+    <n v="225"/>
+    <n v="3375"/>
+    <s v="DEBIT CARD"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Shelli"/>
+    <s v="Video Games"/>
+    <n v="96"/>
+    <n v="58.5"/>
+    <n v="5616"/>
+    <s v="NET BANKING"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="East"/>
+    <x v="0"/>
+    <s v="Alexander"/>
+    <s v="Home Theater"/>
+    <n v="4"/>
+    <n v="500"/>
+    <n v="2000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Central"/>
+    <x v="2"/>
+    <s v="David"/>
+    <s v="Home Theater"/>
+    <n v="80"/>
+    <n v="500"/>
+    <n v="40000"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="West"/>
+    <x v="2"/>
+    <s v="Stephen"/>
+    <s v="Desk"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="375"/>
+    <s v="CASH"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="Central"/>
+    <x v="1"/>
+    <s v="Luis"/>
+    <s v="Home Theater"/>
+    <n v="94"/>
+    <n v="500"/>
+    <n v="47000"/>
+    <s v="CASH"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G17:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -1671,7 +2830,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -1741,15 +2900,40 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1835264-7C82-4C79-9A36-30725F5F85CE}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="4">
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
@@ -1758,16 +2942,16 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -1777,8 +2961,179 @@
     <i>
       <x v="2"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="34" name="OrderDate">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43465"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{050ED731-C565-49AD-AAA4-E58255488234}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="24">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -1787,17 +3142,21 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
+    <dataField name="Sum of Units" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of Unit_price" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1811,33 +3170,52 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64729F82-2170-4660-95C2-CAFA2B4DB401}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item sd="0" x="1"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
+    <pivotField showAll="0">
+      <items count="9">
         <item x="0"/>
         <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="8"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -1847,97 +3225,15 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1954,6 +3250,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2272C2C-0E14-43FE-9839-190D9BDCDB20}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:I24" xr:uid="{FCA55847-EE9C-4286-8284-45388C2D56AF}"/>
+  <sortState ref="A2:I24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{79A75550-4CE4-414A-9A7E-83C5ED5BE3EF}" name="OrderDate" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{DD247317-B8B0-4622-8151-C993B8F8D4B4}" name="Region" dataDxfId="7"/>
@@ -2230,6 +3529,24 @@
 </a:theme>
 </file>
 
+<file path=xl/timelineCaches/timelineCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_OrderDate" xr10:uid="{FE0B8347-8037-44F4-80CA-C5BBBC0F7E77}" sourceName="OrderDate">
+  <pivotTables>
+    <pivotTable tabId="15" name="PivotTable1"/>
+  </pivotTables>
+  <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="512600103" filterType="dateBetween">
+    <selection startDate="2018-01-01T00:00:00" endDate="2018-12-31T00:00:00"/>
+    <bounds startDate="2018-01-01T00:00:00" endDate="2020-01-01T00:00:00"/>
+  </state>
+</timelineCacheDefinition>
+</file>
+
+<file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
+<timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <timeline name="OrderDate" xr10:uid="{B0B579AC-795D-4B72-AD14-4AA82A86CC9D}" cache="NativeTimeline_OrderDate" caption="OrderDate" level="0" selectionLevel="0" scrollPosition="2018-01-01T00:00:00"/>
+</timelines>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
@@ -2287,7 +3604,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>46049.444320833332</v>
+        <v>46049.50041886574</v>
       </c>
       <c r="C2">
         <f ca="1">YEAR(B2)</f>
@@ -2303,15 +3620,15 @@
       </c>
       <c r="F2">
         <f ca="1">HOUR(B2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <f ca="1">MINUTE(B2)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f ca="1">SECOND(B2)</f>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I2" s="5">
         <f ca="1">EDATE(A2,4)</f>
@@ -2341,46 +3658,1265 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FFFB7-CFC1-4B92-BC36-D9E9B02413AF}">
+  <dimension ref="A3:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15">
+        <v>130</v>
+      </c>
+      <c r="C4" s="15">
+        <v>82461</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="59">
+        <v>43242</v>
+      </c>
+      <c r="B5" s="15">
+        <v>32</v>
+      </c>
+      <c r="C5" s="15">
+        <v>38336</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="59">
+        <v>43310</v>
+      </c>
+      <c r="B6" s="15">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15">
+        <v>40500</v>
+      </c>
+      <c r="D6" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="59">
+        <v>43344</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>250</v>
+      </c>
+      <c r="D7" s="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="59">
+        <v>43412</v>
+      </c>
+      <c r="B8" s="15">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3375</v>
+      </c>
+      <c r="D8" s="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="15">
+        <v>484</v>
+      </c>
+      <c r="C9" s="15">
+        <v>350384</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5152.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="59">
+        <v>43123</v>
+      </c>
+      <c r="B10" s="15">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15">
+        <v>25000</v>
+      </c>
+      <c r="D10" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="59">
+        <v>43140</v>
+      </c>
+      <c r="B11" s="15">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43128</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="59">
+        <v>43225</v>
+      </c>
+      <c r="B12" s="15">
+        <v>90</v>
+      </c>
+      <c r="C12" s="15">
+        <v>107820</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="59">
+        <v>43276</v>
+      </c>
+      <c r="B13" s="15">
+        <v>90</v>
+      </c>
+      <c r="C13" s="15">
+        <v>107820</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="59">
+        <v>43378</v>
+      </c>
+      <c r="B14" s="15">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15">
+        <v>14000</v>
+      </c>
+      <c r="D14" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="59">
+        <v>43429</v>
+      </c>
+      <c r="B15" s="15">
+        <v>96</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5616</v>
+      </c>
+      <c r="D15" s="15">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="59">
+        <v>43803</v>
+      </c>
+      <c r="B16" s="15">
+        <v>94</v>
+      </c>
+      <c r="C16" s="15">
+        <v>47000</v>
+      </c>
+      <c r="D16" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15">
+        <v>422</v>
+      </c>
+      <c r="C17" s="15">
+        <v>336490</v>
+      </c>
+      <c r="D17" s="15">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="59">
+        <v>43106</v>
+      </c>
+      <c r="B18" s="15">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15">
+        <v>113810</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="59">
+        <v>43191</v>
+      </c>
+      <c r="B19" s="15">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15">
+        <v>30000</v>
+      </c>
+      <c r="D19" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="59">
+        <v>43208</v>
+      </c>
+      <c r="B20" s="15">
+        <v>75</v>
+      </c>
+      <c r="C20" s="15">
+        <v>89850</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="59">
+        <v>43259</v>
+      </c>
+      <c r="B21" s="15">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="59">
+        <v>43293</v>
+      </c>
+      <c r="B22" s="15">
+        <v>29</v>
+      </c>
+      <c r="C22" s="15">
+        <v>14500</v>
+      </c>
+      <c r="D22" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
+        <v>43327</v>
+      </c>
+      <c r="B23" s="15">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15">
+        <v>41930</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="59">
+        <v>43395</v>
+      </c>
+      <c r="B24" s="15">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15">
+        <v>14400</v>
+      </c>
+      <c r="D24" s="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="59">
+        <v>43514</v>
+      </c>
+      <c r="B25" s="15">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15">
+        <v>166</v>
+      </c>
+      <c r="C26" s="15">
+        <v>113538</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
+        <v>43157</v>
+      </c>
+      <c r="B27" s="15">
+        <v>27</v>
+      </c>
+      <c r="C27" s="15">
+        <v>6075</v>
+      </c>
+      <c r="D27" s="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
+        <v>43174</v>
+      </c>
+      <c r="B28" s="15">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15">
+        <v>67088</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="59">
+        <v>43616</v>
+      </c>
+      <c r="B29" s="15">
+        <v>80</v>
+      </c>
+      <c r="C29" s="15">
+        <v>40000</v>
+      </c>
+      <c r="D29" s="15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="59">
+        <v>43701</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15">
+        <v>375</v>
+      </c>
+      <c r="D30" s="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1202</v>
+      </c>
+      <c r="C31" s="15">
+        <v>882873</v>
+      </c>
+      <c r="D31" s="15">
+        <v>15067.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6DFC98-DCB1-4F4A-B660-D875D1C50D6F}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>43106</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H2" s="7">
+        <v>113810</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>43123</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7">
+        <v>500</v>
+      </c>
+      <c r="H3" s="7">
+        <v>25000</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>43140</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="7">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H4" s="7">
+        <v>43128</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>43157</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7">
+        <v>225</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6075</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>43174</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="9">
+        <v>56</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1198</v>
+      </c>
+      <c r="H6" s="9">
+        <v>67088</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7">
+        <v>500</v>
+      </c>
+      <c r="H7" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>43208</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7">
+        <v>75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H8" s="7">
+        <v>89850</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>43225</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
+        <v>90</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H9" s="7">
+        <v>107820</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>43242</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H10" s="7">
+        <v>38336</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>43259</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7">
+        <v>500</v>
+      </c>
+      <c r="H11" s="7">
+        <v>30000</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>43276</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9">
+        <v>90</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1198</v>
+      </c>
+      <c r="H12" s="9">
+        <v>107820</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7">
+        <v>29</v>
+      </c>
+      <c r="G13" s="7">
+        <v>500</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14500</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>43310</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="9">
+        <v>81</v>
+      </c>
+      <c r="G14" s="9">
+        <v>500</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40500</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>43327</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1198</v>
+      </c>
+      <c r="H15" s="7">
+        <v>41930</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>125</v>
+      </c>
+      <c r="H16" s="7">
+        <v>250</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>43378</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="9">
+        <v>28</v>
+      </c>
+      <c r="G17" s="9">
+        <v>500</v>
+      </c>
+      <c r="H17" s="9">
+        <v>14000</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>43395</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7">
+        <v>64</v>
+      </c>
+      <c r="G18" s="7">
+        <v>225</v>
+      </c>
+      <c r="H18" s="7">
+        <v>14400</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>43412</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9">
+        <v>225</v>
+      </c>
+      <c r="H19" s="9">
+        <v>3375</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>43429</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7">
+        <v>58.5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5616</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>43514</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9">
+        <v>500</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>43616</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7">
+        <v>80</v>
+      </c>
+      <c r="G22" s="7">
+        <v>500</v>
+      </c>
+      <c r="H22" s="7">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>43701</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3</v>
+      </c>
+      <c r="G23" s="9">
+        <v>125</v>
+      </c>
+      <c r="H23" s="9">
+        <v>375</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="58">
+        <v>43803</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3">
+        <v>94</v>
+      </c>
+      <c r="G24" s="3">
+        <v>500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>47000</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5F325C-65B9-4278-909C-CFF215CF7C46}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15">
+        <v>326123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15">
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15">
+        <v>67463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15">
+        <v>507396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62693AF5-4D24-4E87-A163-2F584BD005EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>43106</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2409,7 +4945,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43140</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2438,7 +4974,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43157</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2467,7 +5003,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43174</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2496,7 +5032,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43208</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2525,7 +5061,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43225</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2554,7 +5090,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>43344</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2583,7 +5119,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>43701</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2612,7 +5148,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43123</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2641,7 +5177,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>43378</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2670,7 +5206,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>43616</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2720,7 +5256,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -2731,302 +5267,302 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>239056</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.90625</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>365108.5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>472493</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>229018</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>1305675.5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>239056</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>0.90625</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>365108.5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="13"/>
+      <c r="G12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>472493</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>239056</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>0.90625</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>229018</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>365108.5</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>239056</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>0.90625</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>1305675.5</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>472493</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>365108.5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>229018</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>472493</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>1305675.5</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>229018</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>1305675.5</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <v>1</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>239056</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>0.90625</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>365108.5</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>472493</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>229018</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>1305675.5</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3064,33 +5600,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3111,12 +5647,12 @@
       <c r="G2" s="2">
         <v>43128</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3137,12 +5673,12 @@
       <c r="G3" s="2">
         <v>6075</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3163,12 +5699,12 @@
       <c r="G4" s="2">
         <v>89850</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3189,12 +5725,12 @@
       <c r="G5" s="2">
         <v>107820</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3215,12 +5751,12 @@
       <c r="G6" s="2">
         <v>250</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3241,12 +5777,12 @@
       <c r="G7" s="2">
         <v>25000</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3267,12 +5803,12 @@
       <c r="G8" s="3">
         <v>14000</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3293,12 +5829,12 @@
       <c r="G9" s="2">
         <v>40000</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3319,7 +5855,7 @@
       <c r="G10" s="3">
         <v>47000</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="53" t="s">
         <v>30</v>
       </c>
       <c r="Q10">
@@ -3328,7 +5864,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3349,12 +5885,12 @@
       <c r="G11" s="3">
         <v>107820</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3375,7 +5911,7 @@
       <c r="G12" s="3">
         <v>5616</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="53" t="s">
         <v>24</v>
       </c>
       <c r="Q12">
@@ -3384,7 +5920,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3405,12 +5941,12 @@
       <c r="G13" s="2">
         <v>80266</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3431,12 +5967,12 @@
       <c r="G14" s="2">
         <v>23000</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3457,12 +5993,12 @@
       <c r="G15" s="3">
         <v>43500</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3483,12 +6019,12 @@
       <c r="G16" s="2">
         <v>2925</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3509,12 +6045,12 @@
       <c r="G17" s="2">
         <v>79068</v>
       </c>
-      <c r="H17" s="52" t="s">
+      <c r="H17" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3535,12 +6071,12 @@
       <c r="G18" s="2">
         <v>63494</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3561,12 +6097,12 @@
       <c r="G19" s="3">
         <v>625</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3587,12 +6123,12 @@
       <c r="G20" s="2">
         <v>3217.5</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H20" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3613,12 +6149,12 @@
       <c r="G21" s="2">
         <v>2457</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3639,12 +6175,12 @@
       <c r="G22" s="2">
         <v>8386</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3665,12 +6201,12 @@
       <c r="G23" s="2">
         <v>16772</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3691,12 +6227,12 @@
       <c r="G24" s="2">
         <v>5500</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3717,33 +6253,33 @@
       <c r="G25" s="2">
         <v>14000</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="58">
+      <c r="E26" s="57">
         <f>SUBTOTAL(9,E2:E25)</f>
         <v>1199</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f>SUBTOTAL(9,F2:F25)</f>
         <v>15491</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="57">
         <f>SUBTOTAL(9,G2:G25)</f>
         <v>829769.5</v>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3764,12 +6300,12 @@
       <c r="G27" s="2">
         <v>113810</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3790,12 +6326,12 @@
       <c r="G28" s="2">
         <v>41930</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3816,12 +6352,12 @@
       <c r="G29" s="2">
         <v>936</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3842,12 +6378,12 @@
       <c r="G30" s="2">
         <v>14400</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3868,12 +6404,12 @@
       <c r="G31" s="3">
         <v>3375</v>
       </c>
-      <c r="H31" s="54" t="s">
+      <c r="H31" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3894,12 +6430,12 @@
       <c r="G32" s="2">
         <v>30000</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3920,12 +6456,12 @@
       <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="54" t="s">
+      <c r="H33" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3946,12 +6482,12 @@
       <c r="G34" s="2">
         <v>14500</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3972,12 +6508,12 @@
       <c r="G35" s="3">
         <v>40500</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="53" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3998,12 +6534,12 @@
       <c r="G36" s="2">
         <v>30000</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="51" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4024,12 +6560,12 @@
       <c r="G37" s="3">
         <v>4329</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4050,12 +6586,12 @@
       <c r="G38" s="2">
         <v>21600</v>
       </c>
-      <c r="H38" s="52" t="s">
+      <c r="H38" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4076,33 +6612,33 @@
       <c r="G39" s="2">
         <v>3627</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
         <v>74</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="58">
+      <c r="E40" s="57">
         <f>SUBTOTAL(9,E27:E39)</f>
         <v>691</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="57">
         <f>SUBTOTAL(9,F27:F39)</f>
         <v>5746.5</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="57">
         <f>SUBTOTAL(9,G27:G39)</f>
         <v>321007</v>
       </c>
-      <c r="H40" s="52"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4123,12 +6659,12 @@
       <c r="G41" s="3">
         <v>67088</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="53" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4149,12 +6685,12 @@
       <c r="G42" s="3">
         <v>375</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4175,12 +6711,12 @@
       <c r="G43" s="2">
         <v>38336</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="51" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4201,12 +6737,12 @@
       <c r="G44" s="2">
         <v>3500</v>
       </c>
-      <c r="H44" s="52" t="s">
+      <c r="H44" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4227,12 +6763,12 @@
       <c r="G45" s="2">
         <v>17100</v>
       </c>
-      <c r="H45" s="52" t="s">
+      <c r="H45" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -4258,56 +6794,56 @@
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="57">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="56">
         <f>SUBTOTAL(9,E41:E46)</f>
         <v>231</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="56">
         <f>SUBTOTAL(9,F41:F46)</f>
         <v>3746</v>
       </c>
-      <c r="G47" s="57">
+      <c r="G47" s="56">
         <f>SUBTOTAL(9,G41:G46)</f>
         <v>154899</v>
       </c>
-      <c r="H47" s="55"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="57">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="56">
         <f>SUBTOTAL(9,E2:E46)</f>
         <v>2121</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="56">
         <f>SUBTOTAL(9,F2:F46)</f>
         <v>24983.5</v>
       </c>
-      <c r="G48" s="57">
+      <c r="G48" s="56">
         <f>SUBTOTAL(9,G2:G46)</f>
         <v>1305675.5</v>
       </c>
-      <c r="H48" s="55"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
     </row>
   </sheetData>
   <sortState ref="A2:H46">
@@ -4329,10 +6865,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>500</v>
       </c>
       <c r="F4">
@@ -4341,10 +6877,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>55</v>
       </c>
       <c r="E5">
@@ -4356,10 +6892,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
       <c r="E6">
@@ -4370,8 +6906,8 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="E7">
         <v>700</v>
       </c>
@@ -4408,10 +6944,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f>C4*C5*C6</f>
         <v>27500</v>
       </c>
@@ -4845,10 +7381,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>500</v>
       </c>
       <c r="G5">
@@ -4857,10 +7393,10 @@
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>60</v>
       </c>
       <c r="F6">
@@ -4894,10 +7430,10 @@
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="F7">
@@ -4930,8 +7466,8 @@
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="F8">
         <v>700</v>
       </c>
@@ -4961,10 +7497,10 @@
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <f>D5*D6*D7</f>
         <v>30000</v>
       </c>
@@ -5333,98 +7869,98 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="45" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>500</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>700</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>800</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <v>2200</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>5000</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>7000</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>8000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>22000</v>
       </c>
     </row>
@@ -5468,98 +8004,98 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="45" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>500</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>700</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>800</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <v>2200</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="2:7" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>5000</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <v>7000</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>8000</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>22000</v>
       </c>
     </row>
@@ -5599,101 +8135,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="23">
         <v>1666.6666666666667</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <f>B1*B2*B3</f>
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <f>F7*F8*F10</f>
         <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <f>F12-(F7*F9)</f>
         <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f>F12-F13</f>
         <v>5000</v>
       </c>
@@ -5715,723 +8251,68 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6DFC98-DCB1-4F4A-B660-D875D1C50D6F}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9176CB-4A63-4501-89C5-90CC1CAFBCC5}">
+  <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="25">
-        <v>43106</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="15">
+        <v>399559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7">
-        <v>95</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H2" s="7">
-        <v>113810</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>43157</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7">
-        <v>225</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6075</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
-        <v>43344</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>125</v>
-      </c>
-      <c r="H4" s="7">
-        <v>250</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>43123</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7">
-        <v>500</v>
-      </c>
-      <c r="H5" s="7">
-        <v>25000</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>43429</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="7">
-        <v>96</v>
-      </c>
-      <c r="G6" s="7">
-        <v>58.5</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5616</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>43140</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H7" s="7">
-        <v>43128</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
-        <v>43174</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B5" s="15">
+        <v>288515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9">
-        <v>56</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1198</v>
-      </c>
-      <c r="H8" s="9">
-        <v>67088</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>43208</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="7">
-        <v>75</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H9" s="7">
-        <v>89850</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>43225</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="7">
-        <v>90</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H10" s="7">
-        <v>107820</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
-        <v>43701</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3</v>
-      </c>
-      <c r="G11" s="9">
-        <v>125</v>
-      </c>
-      <c r="H11" s="9">
-        <v>375</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
-        <v>43378</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="9">
-        <v>28</v>
-      </c>
-      <c r="G12" s="9">
-        <v>500</v>
-      </c>
-      <c r="H12" s="9">
-        <v>14000</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>43616</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7">
-        <v>500</v>
-      </c>
-      <c r="H13" s="7">
-        <v>40000</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <v>43803</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="9">
-        <v>94</v>
-      </c>
-      <c r="G14" s="9">
-        <v>500</v>
-      </c>
-      <c r="H14" s="9">
-        <v>47000</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>43242</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="7">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H15" s="7">
-        <v>38336</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>43276</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="9">
-        <v>90</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1198</v>
-      </c>
-      <c r="H16" s="9">
-        <v>107820</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
-        <v>43327</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="7">
-        <v>35</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1198</v>
-      </c>
-      <c r="H17" s="7">
-        <v>41930</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>43395</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7">
-        <v>64</v>
-      </c>
-      <c r="G18" s="7">
-        <v>225</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14400</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>43412</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="9">
-        <v>15</v>
-      </c>
-      <c r="G19" s="9">
-        <v>225</v>
-      </c>
-      <c r="H19" s="9">
-        <v>3375</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>43191</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="7">
-        <v>60</v>
-      </c>
-      <c r="G20" s="7">
-        <v>500</v>
-      </c>
-      <c r="H20" s="7">
-        <v>30000</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>43514</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="9">
-        <v>4</v>
-      </c>
-      <c r="G21" s="9">
-        <v>500</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>43293</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="7">
-        <v>29</v>
-      </c>
-      <c r="G22" s="7">
-        <v>500</v>
-      </c>
-      <c r="H22" s="7">
-        <v>14500</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
-        <v>43310</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9">
-        <v>81</v>
-      </c>
-      <c r="G23" s="9">
-        <v>500</v>
-      </c>
-      <c r="H23" s="9">
-        <v>40500</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>43259</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2">
-        <v>60</v>
-      </c>
-      <c r="G24" s="2">
-        <v>500</v>
-      </c>
-      <c r="H24" s="2">
-        <v>30000</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>43</v>
+      <c r="B6" s="15">
+        <v>105424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15">
+        <v>793498</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{7E03D99C-DC04-49d9-9315-930204A7B6E9}">
+      <x15:timelineRefs>
+        <x15:timelineRef r:id="rId3"/>
+      </x15:timelineRefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/All Practice More.xlsx
+++ b/All Practice More.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cadd Mentor\Student_Class_Code\Jazaul_Hasan_Data_Anylytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14628B86-98A0-452B-BE74-311C91EFC965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E71ACB-4A51-429F-AE33-29B0434DA468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice Date Formule" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Sheet9" sheetId="16" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId11"/>
     <sheet name="Sheet7" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet10" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="NativeTimeline_OrderDate">#N/A</definedName>
@@ -34,10 +35,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-    <pivotCache cacheId="10" r:id="rId15"/>
-    <pivotCache cacheId="5" r:id="rId16"/>
-    <pivotCache cacheId="16" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="4" r:id="rId16"/>
+    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="3" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -45,7 +46,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}">
       <x15:timelineCacheRefs>
-        <x15:timelineCacheRef r:id="rId18"/>
+        <x15:timelineCacheRef r:id="rId19"/>
       </x15:timelineCacheRefs>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="78">
   <si>
     <t>Today</t>
   </si>
@@ -1114,8 +1115,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158262</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="OrderDate">
@@ -1133,12 +1134,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="OrderDate"/>
+              <tsle:timeslicer name="OrderDate"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1283,7 +1284,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1561145932"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2551,6 +2552,369 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9136CEED-5BD7-451E-A688-41A576E25659}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G17:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F13C8B30-1FA5-4AAE-A9E0-6F3A0FF62570}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -2620,288 +2984,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{848105FE-384B-4BFA-855B-5023E3F4C261}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D13:F18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9703331-90ED-4F0C-9CA9-C15CEFE6327A}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F47CC0A2-CB94-463D-B4DC-6F33A7353C3C}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G17:I22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77AC233B-D4D6-4316-A70E-B7424E7F4DC4}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A12:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Max of Units" fld="5" subtotal="max" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1835264-7C82-4C79-9A36-30725F5F85CE}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1835264-7C82-4C79-9A36-30725F5F85CE}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0">
@@ -3001,7 +3085,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{050ED731-C565-49AD-AAA4-E58255488234}" name="PivotTable3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{050ED731-C565-49AD-AAA4-E58255488234}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -3171,7 +3255,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64729F82-2170-4660-95C2-CAFA2B4DB401}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64729F82-2170-4660-95C2-CAFA2B4DB401}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3224,6 +3308,89 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sale_amt" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{19C4DB8E-190A-4628-BB3E-464024FB8750}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A25:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -3604,7 +3771,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>46049.50041886574</v>
+        <v>46049.507495601851</v>
       </c>
       <c r="C2">
         <f ca="1">YEAR(B2)</f>
@@ -3624,11 +3791,11 @@
       </c>
       <c r="G2">
         <f ca="1">MINUTE(B2)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <f ca="1">SECOND(B2)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5">
         <f ca="1">EDATE(A2,4)</f>
@@ -3661,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FFFB7-CFC1-4B92-BC36-D9E9B02413AF}">
   <dimension ref="A3:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4866,11 +5033,192 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00DCD1E-416A-4678-AF2D-2EB780D99554}">
+  <dimension ref="A3:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15">
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15">
+        <v>150948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="15">
+        <v>14000</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15">
+        <v>67463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="15">
+        <v>507396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="15">
+        <v>113810</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="15">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="15">
+        <v>150948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="15">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="15">
+        <v>67463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="15">
+        <v>89850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="15">
+        <v>507396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62693AF5-4D24-4E87-A163-2F584BD005EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F7" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6887,7 +7235,7 @@
         <v>500</v>
       </c>
       <c r="F5">
-        <f t="dataTable" ref="F5:F18" dt2D="0" dtr="0" r1="C4" ca="1"/>
+        <f t="dataTable" ref="F5:F18" dt2D="0" dtr="0" r1="C4"/>
         <v>27500</v>
       </c>
     </row>
@@ -6961,7 +7309,7 @@
         <v>500</v>
       </c>
       <c r="J8">
-        <f t="dataTable" ref="J8:Q19" dt2D="1" dtr="1" r1="C6" r2="C4"/>
+        <f t="dataTable" ref="J8:Q19" dt2D="1" dtr="1" r1="C6" r2="C4" ca="1"/>
         <v>27500</v>
       </c>
       <c r="K8">
@@ -7403,7 +7751,7 @@
         <v>500</v>
       </c>
       <c r="G6">
-        <f t="dataTable" ref="G6:G19" dt2D="0" dtr="0" r1="D5" ca="1"/>
+        <f t="dataTable" ref="G6:G19" dt2D="0" dtr="0" r1="D5"/>
         <v>30000</v>
       </c>
       <c r="I6">
@@ -7446,7 +7794,7 @@
         <v>500</v>
       </c>
       <c r="J7">
-        <f t="dataTable" ref="J7:O20" dt2D="1" dtr="1" r1="D7" r2="D5"/>
+        <f t="dataTable" ref="J7:O20" dt2D="1" dtr="1" r1="D7" r2="D5" ca="1"/>
         <v>30000</v>
       </c>
       <c r="K7">
